--- a/Documentation/Design/strategy ranking.xlsx
+++ b/Documentation/Design/strategy ranking.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>ACB</t>
   </si>
@@ -95,6 +95,12 @@
   <si>
     <t>Strategy Ranking System</t>
   </si>
+  <si>
+    <t>All/Categories</t>
+  </si>
+  <si>
+    <t>Daily/Weekly</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +167,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -177,6 +183,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -472,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:XFD25"/>
+  <dimension ref="A1:XFD26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16884,290 +16893,279 @@
     </row>
     <row r="3" spans="1:16384">
       <c r="A3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>17</v>
+      <c r="B3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:16384">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
-      <c r="B4" t="s">
-        <v>21</v>
+      <c r="B4" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
       <c r="A5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16384">
+      <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:16384">
-      <c r="A6">
+    <row r="7" spans="1:16384" s="7" customFormat="1">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="9">
         <v>0.05</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D7" s="9">
         <v>0</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E7" s="9">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F7" s="9">
         <v>0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G7" s="9">
         <v>0</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H7" s="9">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16384">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.02</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.74</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.12</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.91</v>
       </c>
     </row>
     <row r="8" spans="1:16384">
       <c r="A8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="D8" s="3">
-        <v>0.28000000000000003</v>
+        <v>0.02</v>
       </c>
       <c r="E8" s="3">
-        <v>0.43</v>
+        <v>0.74</v>
       </c>
       <c r="F8" s="3">
-        <v>0.46</v>
+        <v>0.12</v>
       </c>
       <c r="G8" s="3">
-        <v>0.18</v>
+        <v>0.8</v>
       </c>
       <c r="H8" s="3">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="9" spans="1:16384">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
-        <v>-0.03</v>
+        <v>0.1</v>
       </c>
       <c r="D9" s="3">
-        <v>0.69</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E9" s="3">
-        <v>0.94</v>
+        <v>0.43</v>
       </c>
       <c r="F9" s="3">
-        <v>0.72</v>
+        <v>0.46</v>
       </c>
       <c r="G9" s="3">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="H9" s="3">
-        <v>0.51</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10" spans="1:16384">
       <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-0.03</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.94</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.37</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16384">
+      <c r="A11">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C11" s="3">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D11" s="3">
         <v>0.01</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E11" s="3">
         <v>0.5</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F11" s="3">
         <v>0.96</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G11" s="3">
         <v>0.17</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H11" s="3">
         <v>0.89</v>
       </c>
     </row>
-    <row r="12" spans="1:16384">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:16384">
+      <c r="A13" s="1" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16384">
-      <c r="A13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16384">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:16384">
       <c r="A15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16384">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:16384">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <v>-0.35</v>
-      </c>
-      <c r="D17" s="6">
-        <v>15000000</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="5">
-        <f>A17+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="3">
-        <f>C17-5%</f>
-        <v>-0.39999999999999997</v>
+        <v>-0.35</v>
       </c>
       <c r="D18" s="6">
-        <f>D17*0.95</f>
-        <v>14250000</v>
+        <v>15000000</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="5">
-        <f t="shared" ref="A19:A21" si="0">A18+1</f>
-        <v>3</v>
+        <f>A18+1</f>
+        <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="3">
-        <f t="shared" ref="C19:C21" si="1">C18-5%</f>
-        <v>-0.44999999999999996</v>
+        <f>C18-5%</f>
+        <v>-0.39999999999999997</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:D21" si="2">D18*0.95</f>
-        <v>13537500</v>
+        <f>D18*0.95</f>
+        <v>14250000</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="A20:A22" si="0">A19+1</f>
+        <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3">
-        <f t="shared" si="1"/>
-        <v>-0.49999999999999994</v>
+        <f t="shared" ref="C20:C22" si="1">C19-5%</f>
+        <v>-0.44999999999999996</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="2"/>
-        <v>12860625</v>
+        <f t="shared" ref="D20:D22" si="2">D19*0.95</f>
+        <v>13537500</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -17175,46 +17173,65 @@
     <row r="21" spans="1:6">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C21" s="3">
         <f t="shared" si="1"/>
-        <v>-0.54999999999999993</v>
+        <v>-0.49999999999999994</v>
       </c>
       <c r="D21" s="6">
         <f t="shared" si="2"/>
-        <v>12217593.75</v>
+        <v>12860625</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1" t="s">
-        <v>18</v>
+    <row r="22" spans="1:6">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>19</v>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
+        <v>-0.54999999999999993</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="2"/>
+        <v>12217593.75</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
     </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B5:H10">
+  <conditionalFormatting sqref="B6:H11">
     <cfRule type="iconSet" priority="10">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
@@ -17223,7 +17240,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C21">
+  <conditionalFormatting sqref="C18:C22">
     <cfRule type="iconSet" priority="5">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -17232,7 +17249,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D21">
+  <conditionalFormatting sqref="D18:D22">
     <cfRule type="iconSet" priority="4">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -17241,7 +17258,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C10">
+  <conditionalFormatting sqref="C7:C11">
     <cfRule type="iconSet" priority="3">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -17250,7 +17267,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:D10">
+  <conditionalFormatting sqref="D7:D11">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
@@ -17259,7 +17276,7 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E6:E10">
+  <conditionalFormatting sqref="E7:E11">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols">
         <cfvo type="percent" val="0"/>
